--- a/output/StructureDefinition-NepalAddress.xlsx
+++ b/output/StructureDefinition-NepalAddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:52:08+05:45</t>
+    <t>2025-08-20T08:30:34+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NepalAddress.xlsx
+++ b/output/StructureDefinition-NepalAddress.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="208">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,30 +436,6 @@
     <t>https://fhir.hmis.gov.np/ValueSet/province</t>
   </si>
   <si>
-    <t>Extension.extension:province.extension:system</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>Extension.extension:province.extension:system.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:province.extension:system.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:province.extension:system.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:province.extension:system.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:province.extension:system.value[x]:valueUri</t>
-  </si>
-  <si>
-    <t>valueUri</t>
-  </si>
-  <si>
     <t>Extension.extension:province.extension:text</t>
   </si>
   <si>
@@ -533,24 +509,6 @@
     <t>https://fhir.hmis.gov.np/ValueSet/district</t>
   </si>
   <si>
-    <t>Extension.extension:district.extension:system</t>
-  </si>
-  <si>
-    <t>Extension.extension:district.extension:system.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:district.extension:system.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:district.extension:system.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:district.extension:system.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:district.extension:system.value[x]:valueUri</t>
-  </si>
-  <si>
     <t>Extension.extension:district.extension:text</t>
   </si>
   <si>
@@ -606,24 +564,6 @@
   </si>
   <si>
     <t>https://fhir.hmis.gov.np/ValueSet/localbody</t>
-  </si>
-  <si>
-    <t>Extension.extension:localBody.extension:system</t>
-  </si>
-  <si>
-    <t>Extension.extension:localBody.extension:system.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:localBody.extension:system.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:localBody.extension:system.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:localBody.extension:system.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:localBody.extension:system.value[x]:valueUri</t>
   </si>
   <si>
     <t>Extension.extension:localBody.extension:text</t>
@@ -685,6 +625,9 @@
   <si>
     <t xml:space="preserve">integer
 </t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>Extension.extension:ward.extension:text</t>
@@ -1031,7 +974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK92"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2982,7 +2925,7 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>125</v>
@@ -3000,7 +2943,7 @@
         <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>78</v>
@@ -3059,20 +3002,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>84</v>
@@ -3087,22 +3028,24 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>78</v>
@@ -3144,30 +3087,30 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3178,7 +3121,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3190,13 +3133,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3247,7 +3190,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3256,23 +3199,25 @@
         <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3281,7 +3226,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3338,16 +3283,16 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>100</v>
@@ -3370,10 +3315,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3381,7 +3326,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>84</v>
@@ -3396,24 +3341,22 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>78</v>
@@ -3455,41 +3398,41 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -3501,15 +3444,17 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -3546,9 +3491,11 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3556,33 +3503,33 @@
         <v>99</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
@@ -3604,13 +3551,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3661,30 +3608,30 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3692,7 +3639,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -3707,24 +3654,22 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>78</v>
@@ -3766,22 +3711,22 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -3789,7 +3734,7 @@
         <v>155</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3812,13 +3757,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3857,52 +3802,50 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -3917,22 +3860,24 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>78</v>
@@ -3974,30 +3919,30 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4020,13 +3965,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4065,19 +4010,17 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4086,32 +4029,34 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="D30" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4123,17 +4068,15 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4158,57 +4101,55 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>78</v>
@@ -4307,7 +4248,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>111</v>
@@ -4410,7 +4351,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4513,7 +4454,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>115</v>
@@ -4556,7 +4497,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -4618,7 +4559,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>123</v>
@@ -4719,13 +4660,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>123</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
@@ -4747,7 +4688,7 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>125</v>
@@ -4780,11 +4721,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -4822,20 +4765,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>84</v>
@@ -4850,22 +4791,24 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
@@ -4907,30 +4850,30 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4941,7 +4884,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -4953,13 +4896,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5010,7 +4953,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5019,23 +4962,25 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>78</v>
       </c>
@@ -5044,7 +4989,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5101,16 +5046,16 @@
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>100</v>
@@ -5133,10 +5078,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5144,7 +5089,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>84</v>
@@ -5159,24 +5104,22 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>78</v>
@@ -5218,41 +5161,41 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -5264,15 +5207,17 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -5309,9 +5254,11 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
@@ -5319,33 +5266,33 @@
         <v>99</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>78</v>
@@ -5367,13 +5314,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5385,7 +5332,7 @@
         <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>78</v>
@@ -5424,34 +5371,32 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>78</v>
       </c>
@@ -5472,13 +5417,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5529,30 +5474,30 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5563,7 +5508,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -5575,13 +5520,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5620,42 +5565,42 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5663,10 +5608,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -5678,22 +5623,24 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>78</v>
@@ -5723,42 +5670,42 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5766,7 +5713,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>84</v>
@@ -5781,24 +5728,22 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>78</v>
@@ -5828,31 +5773,29 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>121</v>
@@ -5860,12 +5803,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
@@ -5886,7 +5831,7 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>125</v>
@@ -5919,26 +5864,26 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>128</v>
@@ -5964,10 +5909,10 @@
         <v>179</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>78</v>
@@ -5989,13 +5934,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6046,22 +5991,22 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -6069,7 +6014,7 @@
         <v>180</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6077,7 +6022,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>84</v>
@@ -6092,24 +6037,22 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>78</v>
@@ -6151,22 +6094,22 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
@@ -6174,7 +6117,7 @@
         <v>181</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6197,13 +6140,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6242,34 +6185,34 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
@@ -6277,17 +6220,15 @@
         <v>182</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>84</v>
@@ -6302,22 +6243,24 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>78</v>
@@ -6359,30 +6302,30 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6405,13 +6348,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6450,19 +6393,17 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -6471,32 +6412,34 @@
         <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D53" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -6508,17 +6451,15 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -6555,52 +6496,50 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>84</v>
@@ -6615,22 +6554,24 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>78</v>
@@ -6672,30 +6613,30 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6706,7 +6647,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -6718,13 +6659,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6775,7 +6716,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -6784,23 +6725,25 @@
         <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -6809,7 +6752,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -6866,16 +6809,16 @@
         <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>100</v>
@@ -6901,7 +6844,7 @@
         <v>189</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6909,7 +6852,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -6924,24 +6867,22 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>78</v>
@@ -6983,22 +6924,22 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -7006,18 +6947,18 @@
         <v>190</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -7029,15 +6970,17 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -7074,9 +7017,11 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
@@ -7084,22 +7029,22 @@
         <v>99</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -7107,10 +7052,10 @@
         <v>191</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -7132,13 +7077,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7165,11 +7110,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -7187,34 +7134,32 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
@@ -7235,13 +7180,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7292,30 +7237,30 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7326,7 +7271,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -7338,13 +7283,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7383,42 +7328,42 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7426,10 +7371,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -7441,22 +7386,24 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>78</v>
@@ -7486,42 +7433,42 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7529,7 +7476,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>84</v>
@@ -7544,24 +7491,22 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>78</v>
@@ -7591,31 +7536,29 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>121</v>
@@ -7623,12 +7566,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>78</v>
       </c>
@@ -7649,7 +7594,7 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>125</v>
@@ -7673,10 +7618,10 @@
         <v>78</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="W64" t="s" s="2">
         <v>78</v>
@@ -7694,14 +7639,16 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>128</v>
@@ -7724,13 +7671,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>78</v>
@@ -7752,13 +7699,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -7770,7 +7717,7 @@
         <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>78</v>
@@ -7809,34 +7756,32 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>78</v>
       </c>
@@ -7857,13 +7802,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -7914,30 +7859,30 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -7948,7 +7893,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -7960,13 +7905,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8005,42 +7950,42 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8048,10 +7993,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -8063,22 +8008,24 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>78</v>
@@ -8108,42 +8055,42 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8151,7 +8098,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>84</v>
@@ -8166,24 +8113,22 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>78</v>
@@ -8213,31 +8158,29 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>121</v>
@@ -8245,12 +8188,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>78</v>
       </c>
@@ -8271,7 +8216,7 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>125</v>
@@ -8316,14 +8261,16 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC70" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>128</v>
@@ -8346,20 +8293,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>84</v>
@@ -8374,22 +8319,24 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>78</v>
@@ -8431,19 +8378,19 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>121</v>
@@ -8451,10 +8398,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8462,10 +8409,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -8477,24 +8424,22 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>78</v>
@@ -8536,19 +8481,19 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>121</v>
@@ -8556,10 +8501,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8567,10 +8512,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -8582,22 +8527,24 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>78</v>
@@ -8639,19 +8586,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>121</v>
@@ -8659,14 +8606,12 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>78</v>
       </c>
@@ -8675,7 +8620,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -8687,13 +8632,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8744,1889 +8689,21 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC81" s="2"/>
-      <c r="AD81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="D83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC87" s="2"/>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="D88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AK92" t="s" s="2">
         <v>121</v>
       </c>
     </row>

--- a/output/StructureDefinition-NepalAddress.xlsx
+++ b/output/StructureDefinition-NepalAddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NepalAddress.xlsx
+++ b/output/StructureDefinition-NepalAddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NepalAddress.xlsx
+++ b/output/StructureDefinition-NepalAddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NepalAddress.xlsx
+++ b/output/StructureDefinition-NepalAddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NepalAddress.xlsx
+++ b/output/StructureDefinition-NepalAddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NepalAddress.xlsx
+++ b/output/StructureDefinition-NepalAddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NepalAddress.xlsx
+++ b/output/StructureDefinition-NepalAddress.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
